--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-page-list-generator/tests/testdata/src_px2/px-files/sitemaps/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FDE56-3E4D-F149-819B-DA7CA59EA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="sitemap" sheetId="1" r:id="rId4"/>
+    <sheet name="sitemap" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
@@ -294,58 +299,66 @@
   </si>
   <si>
     <t>EndOfData</t>
+  </si>
+  <si>
+    <t>LIST SAMPLE 3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/listsample3/{*}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/listsample3/index.html</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
-  <numFmts count="0"/>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF333333"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="24"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <strike val="0"/>
-      <u val="none"/>
       <sz val="8"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="Noto Sans CJK JP Black"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="6">
@@ -353,10 +366,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125">
-        <fgColor rgb="FFFFFFFF"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -372,19 +382,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFcccccc"/>
+        <fgColor rgb="FFCCCCCC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFdddddd"/>
+        <fgColor rgb="FFDDDDDD"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
   <borders count="5">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
@@ -398,13 +414,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -412,13 +429,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -426,13 +444,14 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF666666"/>
       </left>
       <right style="thin">
-        <color rgb="FFdddddd"/>
+        <color rgb="FFDDDDDD"/>
       </right>
       <top style="thin">
         <color rgb="FF000000"/>
@@ -440,51 +459,43 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="1" numFmtId="0" fillId="3" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="2" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="4" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="5" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="2" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="4" numFmtId="0" fillId="5" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -774,42 +785,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-  </sheetPr>
-  <dimension ref="A1:W29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:W30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="B9" sqref="B9"/>
+      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
   <cols>
-    <col min="1" max="1" width="8" customWidth="true" style="0"/>
-    <col min="2" max="2" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="3" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="20" customWidth="true" style="0"/>
-    <col min="7" max="7" width="2" customWidth="true" style="0"/>
-    <col min="8" max="8" width="2" customWidth="true" style="0"/>
-    <col min="9" max="9" width="2" customWidth="true" style="0"/>
-    <col min="10" max="10" width="2" customWidth="true" style="0"/>
-    <col min="11" max="11" width="40" customWidth="true" style="0"/>
-    <col min="12" max="12" width="20" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
-    <col min="17" max="17" width="30" customWidth="true" style="0"/>
-    <col min="16" max="16" width="30" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
-    <col min="18" max="18" width="3" customWidth="true" style="0"/>
+    <col min="1" max="1" width="8" customWidth="1"/>
+    <col min="2" max="5" width="3" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="10" width="2" customWidth="1"/>
+    <col min="11" max="11" width="40" customWidth="1"/>
+    <col min="12" max="12" width="20" customWidth="1"/>
+    <col min="13" max="13" width="3" customWidth="1"/>
+    <col min="14" max="14" width="9" customWidth="1"/>
+    <col min="15" max="15" width="3" customWidth="1"/>
+    <col min="16" max="17" width="30" customWidth="1"/>
+    <col min="18" max="18" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" customHeight="1" ht="10">
+    <row r="1" spans="1:23" ht="10" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,7 +837,7 @@
       <c r="V1" s="1"/>
       <c r="W1" s="1"/>
     </row>
-    <row r="3" spans="1:23">
+    <row r="3" spans="1:23" ht="38">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -850,13 +851,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -913,13 +914,13 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
       <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1630,49 +1631,76 @@
       <c r="V26" s="4"/>
       <c r="W26" s="4"/>
     </row>
-    <row r="29" spans="1:23" customHeight="1" ht="5">
-      <c r="A29" s="10" t="s">
+    <row r="27" spans="1:23">
+      <c r="A27" s="4"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7"/>
+      <c r="F27" s="7"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L27" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="M27" s="4">
+        <v>1</v>
+      </c>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="4">
+        <v>1</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+    </row>
+    <row r="30" spans="1:23" ht="5" customHeight="1">
+      <c r="A30" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="10"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
-      <c r="K29" s="10"/>
-      <c r="L29" s="10"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="10"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-      <c r="R29" s="10"/>
-      <c r="S29" s="10"/>
-      <c r="T29" s="10"/>
-      <c r="U29" s="10"/>
-      <c r="V29" s="10"/>
-      <c r="W29" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="10"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
     </row>
   </sheetData>
-  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
-  <mergeCells>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="2">
     <mergeCell ref="B7:F7"/>
     <mergeCell ref="B8:F8"/>
   </mergeCells>
-  <printOptions gridLines="false" gridLinesSet="true"/>
+  <phoneticPr fontId="5"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
-  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
-    <oddHeader/>
-    <oddFooter/>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-page-list-generator/tests/testdata/src_px2/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D45FDE56-3E4D-F149-819B-DA7CA59EA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F52600-F4C9-8E43-BF16-49D227EBF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
@@ -310,6 +310,18 @@
   </si>
   <si>
     <t>/listsample3/index.html</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>LIST SAMPLE 4 list_page_id</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/listsample4_list_page_id/{*}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/listsample4_list_page_id/index.html</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -465,7 +477,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -477,11 +489,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -786,13 +799,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W30"/>
+  <dimension ref="A1:W31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="L28" sqref="L28"/>
+      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -851,13 +864,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -914,13 +927,13 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="12"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1634,7 +1647,7 @@
     <row r="27" spans="1:23">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="14" t="s">
+      <c r="C27" s="12" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="7"/>
@@ -1644,10 +1657,10 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="15" t="s">
+      <c r="K27" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="L27" s="15" t="s">
+      <c r="L27" s="13" t="s">
         <v>95</v>
       </c>
       <c r="M27" s="4">
@@ -1666,32 +1679,67 @@
       <c r="V27" s="4"/>
       <c r="W27" s="4"/>
     </row>
-    <row r="30" spans="1:23" ht="5" customHeight="1">
-      <c r="A30" s="10" t="s">
+    <row r="28" spans="1:23">
+      <c r="A28" s="11"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M28" s="11">
+        <v>1</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+      <c r="R28" s="11">
+        <v>1</v>
+      </c>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="11"/>
+      <c r="V28" s="11"/>
+      <c r="W28" s="11"/>
+    </row>
+    <row r="31" spans="1:23" ht="5" customHeight="1">
+      <c r="A31" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
-      <c r="K30" s="10"/>
-      <c r="L30" s="10"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="10"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-      <c r="R30" s="10"/>
-      <c r="S30" s="10"/>
-      <c r="T30" s="10"/>
-      <c r="U30" s="10"/>
-      <c r="V30" s="10"/>
-      <c r="W30" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>

--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11011"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-page-list-generator/tests/testdata/src_px2/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43F52600-F4C9-8E43-BF16-49D227EBF6F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B24C9-42B0-F940-B564-8A55AFED89F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
@@ -323,6 +323,49 @@
   <si>
     <t>/listsample4_list_page_id/index.html</t>
     <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2015-01-24</t>
+  </si>
+  <si>
+    <t>2015-01-25</t>
+  </si>
+  <si>
+    <t>2015-01-26</t>
+  </si>
+  <si>
+    <t>2015-01-27</t>
+  </si>
+  <si>
+    <t>2015-01-28</t>
+  </si>
+  <si>
+    <t>2015-01-29</t>
+  </si>
+  <si>
+    <t>2015-01-30</t>
+  </si>
+  <si>
+    <t>2015-02-01</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>2015-02-02</t>
+  </si>
+  <si>
+    <t>2015-02-03</t>
+  </si>
+  <si>
+    <t>2015-02-04</t>
+  </si>
+  <si>
+    <t>2015-02-05</t>
+  </si>
+  <si>
+    <t>2015-02-06</t>
+  </si>
+  <si>
+    <t>2015-02-07</t>
   </si>
 </sst>
 </file>
@@ -489,12 +532,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -805,7 +848,7 @@
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="K29" sqref="K29"/>
+      <selection pane="bottomRight" activeCell="Y35" sqref="Y35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -821,6 +864,8 @@
     <col min="15" max="15" width="3" customWidth="1"/>
     <col min="16" max="17" width="30" customWidth="1"/>
     <col min="18" max="18" width="3" customWidth="1"/>
+    <col min="21" max="21" width="14.7109375" customWidth="1"/>
+    <col min="22" max="22" width="20" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="10" customHeight="1">
@@ -864,13 +909,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="15"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -927,13 +972,13 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
       <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1119,10 +1164,10 @@
         <v>1</v>
       </c>
       <c r="U12" s="4" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="V12" s="4" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="W12" s="4" t="s">
         <v>49</v>
@@ -1156,10 +1201,10 @@
         <v>1</v>
       </c>
       <c r="U13" s="4" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="V13" s="4" t="s">
-        <v>45</v>
+        <v>100</v>
       </c>
       <c r="W13" s="4" t="s">
         <v>52</v>
@@ -1193,10 +1238,10 @@
         <v>1</v>
       </c>
       <c r="U14" s="4" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="V14" s="4" t="s">
-        <v>45</v>
+        <v>101</v>
       </c>
       <c r="W14" s="4" t="s">
         <v>55</v>
@@ -1230,10 +1275,10 @@
         <v>1</v>
       </c>
       <c r="U15" s="4" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="V15" s="4" t="s">
-        <v>45</v>
+        <v>102</v>
       </c>
       <c r="W15" s="4" t="s">
         <v>58</v>
@@ -1267,10 +1312,10 @@
         <v>1</v>
       </c>
       <c r="U16" s="4" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="V16" s="4" t="s">
-        <v>45</v>
+        <v>103</v>
       </c>
       <c r="W16" s="4" t="s">
         <v>61</v>
@@ -1304,10 +1349,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="4" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="V17" s="4" t="s">
-        <v>45</v>
+        <v>104</v>
       </c>
       <c r="W17" s="4" t="s">
         <v>64</v>
@@ -1341,10 +1386,10 @@
         <v>1</v>
       </c>
       <c r="U18" s="4" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="V18" s="4" t="s">
-        <v>45</v>
+        <v>105</v>
       </c>
       <c r="W18" s="4" t="s">
         <v>67</v>
@@ -1377,11 +1422,11 @@
       <c r="T19" s="4">
         <v>1</v>
       </c>
-      <c r="U19" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V19" s="4" t="s">
-        <v>45</v>
+      <c r="U19" s="16" t="s">
+        <v>106</v>
+      </c>
+      <c r="V19" s="16" t="s">
+        <v>106</v>
       </c>
       <c r="W19" s="4" t="s">
         <v>70</v>
@@ -1414,11 +1459,11 @@
       <c r="T20" s="4">
         <v>1</v>
       </c>
-      <c r="U20" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V20" s="4" t="s">
-        <v>45</v>
+      <c r="U20" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="V20" s="16" t="s">
+        <v>107</v>
       </c>
       <c r="W20" s="4" t="s">
         <v>73</v>
@@ -1451,11 +1496,11 @@
       <c r="T21" s="4">
         <v>1</v>
       </c>
-      <c r="U21" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V21" s="4" t="s">
-        <v>45</v>
+      <c r="U21" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="V21" s="16" t="s">
+        <v>108</v>
       </c>
       <c r="W21" s="4" t="s">
         <v>76</v>
@@ -1488,11 +1533,11 @@
       <c r="T22" s="4">
         <v>1</v>
       </c>
-      <c r="U22" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V22" s="4" t="s">
-        <v>45</v>
+      <c r="U22" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="V22" s="16" t="s">
+        <v>109</v>
       </c>
       <c r="W22" s="4" t="s">
         <v>79</v>
@@ -1525,11 +1570,11 @@
       <c r="T23" s="4">
         <v>1</v>
       </c>
-      <c r="U23" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V23" s="4" t="s">
-        <v>45</v>
+      <c r="U23" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="V23" s="16" t="s">
+        <v>110</v>
       </c>
       <c r="W23" s="4" t="s">
         <v>82</v>
@@ -1562,11 +1607,11 @@
       <c r="T24" s="4">
         <v>1</v>
       </c>
-      <c r="U24" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V24" s="4" t="s">
-        <v>45</v>
+      <c r="U24" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="V24" s="16" t="s">
+        <v>111</v>
       </c>
       <c r="W24" s="4" t="s">
         <v>85</v>
@@ -1599,11 +1644,11 @@
       <c r="T25" s="4">
         <v>1</v>
       </c>
-      <c r="U25" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="V25" s="4" t="s">
-        <v>45</v>
+      <c r="U25" s="16" t="s">
+        <v>112</v>
+      </c>
+      <c r="V25" s="16" t="s">
+        <v>112</v>
       </c>
       <c r="W25" s="4" t="s">
         <v>88</v>
@@ -1647,7 +1692,7 @@
     <row r="27" spans="1:23">
       <c r="A27" s="4"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>93</v>
       </c>
       <c r="D27" s="7"/>
@@ -1657,10 +1702,10 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
-      <c r="K27" s="13" t="s">
+      <c r="K27" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="12" t="s">
         <v>95</v>
       </c>
       <c r="M27" s="4">
@@ -1680,39 +1725,39 @@
       <c r="W27" s="4"/>
     </row>
     <row r="28" spans="1:23">
-      <c r="A28" s="11"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="6"/>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>96</v>
       </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="7"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="13" t="s">
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="M28" s="11">
-        <v>1</v>
-      </c>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
+      <c r="M28" s="4">
+        <v>1</v>
+      </c>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
       <c r="P28" s="9"/>
       <c r="Q28" s="9"/>
-      <c r="R28" s="11">
-        <v>1</v>
-      </c>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
+      <c r="R28" s="4">
+        <v>1</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
     </row>
     <row r="31" spans="1:23" ht="5" customHeight="1">
       <c r="A31" s="10" t="s">

--- a/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
+++ b/tests/testdata/src_px2/px-files/sitemaps/sitemap.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tomk79/mydoc_TomK/projs/pickles2/tomk79/px2-page-list-generator/tests/testdata/src_px2/px-files/sitemaps/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{444B24C9-42B0-F940-B564-8A55AFED89F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09948858-B69B-5841-994E-DCB70E9472D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="119">
   <si>
     <t>row_definition=8&amp;row_data_start=9&amp;skip_empty_col=20&amp;version=2.0.2</t>
   </si>
@@ -366,6 +366,30 @@
   </si>
   <si>
     <t>2015-02-07</t>
+  </si>
+  <si>
+    <t>DEFINE SAMPLE 1</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DEFINE SAMPLE 2</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/define_sample_2/{*}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/define_sample_1/{*}</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>DEFINE SAMPLE 3</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>/define_sample_3/{*}</t>
+    <phoneticPr fontId="5"/>
   </si>
 </sst>
 </file>
@@ -534,10 +558,10 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -842,13 +866,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:W34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="8" topLeftCell="B9" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="Y35" sqref="Y35"/>
+      <selection pane="bottomRight" activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="20"/>
@@ -909,13 +933,13 @@
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
       <c r="G7" s="3" t="s">
         <v>5</v>
       </c>
@@ -972,13 +996,13 @@
       <c r="A8" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
       <c r="G8" s="5" t="s">
         <v>24</v>
       </c>
@@ -1422,10 +1446,10 @@
       <c r="T19" s="4">
         <v>1</v>
       </c>
-      <c r="U19" s="16" t="s">
+      <c r="U19" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="V19" s="16" t="s">
+      <c r="V19" s="13" t="s">
         <v>106</v>
       </c>
       <c r="W19" s="4" t="s">
@@ -1459,10 +1483,10 @@
       <c r="T20" s="4">
         <v>1</v>
       </c>
-      <c r="U20" s="16" t="s">
+      <c r="U20" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="V20" s="16" t="s">
+      <c r="V20" s="13" t="s">
         <v>107</v>
       </c>
       <c r="W20" s="4" t="s">
@@ -1496,10 +1520,10 @@
       <c r="T21" s="4">
         <v>1</v>
       </c>
-      <c r="U21" s="16" t="s">
+      <c r="U21" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="V21" s="16" t="s">
+      <c r="V21" s="13" t="s">
         <v>108</v>
       </c>
       <c r="W21" s="4" t="s">
@@ -1533,10 +1557,10 @@
       <c r="T22" s="4">
         <v>1</v>
       </c>
-      <c r="U22" s="16" t="s">
+      <c r="U22" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="V22" s="16" t="s">
+      <c r="V22" s="13" t="s">
         <v>109</v>
       </c>
       <c r="W22" s="4" t="s">
@@ -1570,10 +1594,10 @@
       <c r="T23" s="4">
         <v>1</v>
       </c>
-      <c r="U23" s="16" t="s">
+      <c r="U23" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="V23" s="16" t="s">
+      <c r="V23" s="13" t="s">
         <v>110</v>
       </c>
       <c r="W23" s="4" t="s">
@@ -1607,10 +1631,10 @@
       <c r="T24" s="4">
         <v>1</v>
       </c>
-      <c r="U24" s="16" t="s">
+      <c r="U24" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="V24" s="16" t="s">
+      <c r="V24" s="13" t="s">
         <v>111</v>
       </c>
       <c r="W24" s="4" t="s">
@@ -1644,10 +1668,10 @@
       <c r="T25" s="4">
         <v>1</v>
       </c>
-      <c r="U25" s="16" t="s">
+      <c r="U25" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="V25" s="16" t="s">
+      <c r="V25" s="13" t="s">
         <v>112</v>
       </c>
       <c r="W25" s="4" t="s">
@@ -1759,32 +1783,131 @@
       <c r="V28" s="4"/>
       <c r="W28" s="4"/>
     </row>
-    <row r="31" spans="1:23" ht="5" customHeight="1">
-      <c r="A31" s="10" t="s">
+    <row r="29" spans="1:23">
+      <c r="A29" s="4"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="7"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4">
+        <v>1</v>
+      </c>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+      <c r="R29" s="4">
+        <v>1</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+    </row>
+    <row r="30" spans="1:23">
+      <c r="A30" s="4"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="7"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4">
+        <v>1</v>
+      </c>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+      <c r="R30" s="4">
+        <v>1</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+    </row>
+    <row r="31" spans="1:23">
+      <c r="A31" s="4"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D31" s="7"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="7"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4">
+        <v>1</v>
+      </c>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+      <c r="R31" s="4">
+        <v>1</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="34" spans="1:23" ht="5" customHeight="1">
+      <c r="A34" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-      <c r="R31" s="10"/>
-      <c r="S31" s="10"/>
-      <c r="T31" s="10"/>
-      <c r="U31" s="10"/>
-      <c r="V31" s="10"/>
-      <c r="W31" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10"/>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
